--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DECEDBC-CA9E-324D-9038-96BCF253AE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E54EC4-891E-E942-A9E8-ACE0CDB64EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="760" windowWidth="27640" windowHeight="16500" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
+    <workbookView xWindow="6040" yWindow="760" windowWidth="27640" windowHeight="16500" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="65">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Jean- David  Nsilulu</t>
   </si>
   <si>
-    <t>Cotisation Speciale</t>
-  </si>
-  <si>
     <t>Donat Bitazi</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Marceline Mpoyi</t>
   </si>
   <si>
-    <t>Frais D'adhesion</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>Adrien Ngudiankama</t>
   </si>
   <si>
-    <t>Constance Nsungi Matando</t>
-  </si>
-  <si>
     <t>Mar</t>
   </si>
   <si>
@@ -228,6 +219,18 @@
   </si>
   <si>
     <t>Mai</t>
+  </si>
+  <si>
+    <t>Cotisation &lt;br&gt;Speciale</t>
+  </si>
+  <si>
+    <t>Frais&lt;br&gt;D'adhesion</t>
+  </si>
+  <si>
+    <t>Juin</t>
+  </si>
+  <si>
+    <t>Constance Matando</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,6 +481,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,27 +502,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -859,78 +864,87 @@
     <col min="8" max="8" width="10.83203125" style="23" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="23" customWidth="1"/>
     <col min="10" max="11" width="15" style="23" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="28" customFormat="1" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="77" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K1" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="28" customFormat="1" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" spans="1:13" s="28" customFormat="1" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
-      <c r="C2" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="31"/>
       <c r="G2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="9">
         <v>10</v>
@@ -954,16 +968,20 @@
       <c r="K3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9">
         <v>10</v>
@@ -984,19 +1002,23 @@
       <c r="J4" s="9">
         <v>10</v>
       </c>
-      <c r="K4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="34">
+        <v>0</v>
+      </c>
+      <c r="L4" s="34">
+        <v>0</v>
+      </c>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9">
         <v>10</v>
@@ -1020,16 +1042,20 @@
       <c r="K5" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="9">
         <v>10</v>
@@ -1053,16 +1079,20 @@
       <c r="K6" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="9">
         <v>10</v>
@@ -1086,16 +1116,20 @@
       <c r="K7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="9">
         <v>10</v>
@@ -1119,16 +1153,20 @@
       <c r="K8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9">
         <v>10</v>
@@ -1152,16 +1190,20 @@
       <c r="K9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="9">
         <v>10</v>
@@ -1171,30 +1213,34 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="9">
         <v>10</v>
@@ -1218,16 +1264,20 @@
       <c r="K11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9">
         <v>10</v>
@@ -1251,13 +1301,17 @@
       <c r="K12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="12">
@@ -1268,7 +1322,7 @@
         <f>SUM(E3:E12)</f>
         <v>400</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="36">
         <v>-51.5</v>
       </c>
       <c r="G13" s="29">
@@ -1291,99 +1345,115 @@
         <f>SUM(K3:K12)</f>
         <v>20</v>
       </c>
-      <c r="L13" s="39">
-        <f>SUM(D13:K13)</f>
+      <c r="L13" s="29">
+        <f>SUM(L3:L12)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="44">
+        <f>SUM(D13:L13)</f>
         <v>778.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="8"/>
       <c r="D14" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="21">
         <v>0</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="8"/>
       <c r="D15" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="21">
         <v>0</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="31"/>
       <c r="G16" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="16">
         <v>10</v>
@@ -1402,22 +1472,26 @@
         <v>10</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17" s="16">
         <v>0</v>
       </c>
-      <c r="N17" s="41"/>
-    </row>
-    <row r="18" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="16">
+        <v>0</v>
+      </c>
+      <c r="M17" s="43"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="16">
         <v>10</v>
@@ -1427,31 +1501,35 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K18" s="16">
         <v>0</v>
       </c>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="43"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="16">
         <v>10</v>
@@ -1461,31 +1539,35 @@
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K19" s="16">
         <v>0</v>
       </c>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="16">
+        <v>0</v>
+      </c>
+      <c r="M19" s="43"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="16">
         <v>10</v>
@@ -1495,31 +1577,35 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K20" s="16">
         <v>0</v>
       </c>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="16">
+        <v>0</v>
+      </c>
+      <c r="M20" s="43"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="16">
         <v>10</v>
@@ -1529,31 +1615,35 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K21" s="16">
         <v>0</v>
       </c>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="16">
+        <v>0</v>
+      </c>
+      <c r="M21" s="43"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="16">
         <v>0</v>
@@ -1563,31 +1653,35 @@
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K22" s="16">
         <v>0</v>
       </c>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="43"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="16">
         <v>10</v>
@@ -1597,31 +1691,35 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K23" s="16">
         <v>0</v>
       </c>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="16">
+        <v>0</v>
+      </c>
+      <c r="M23" s="43"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="16">
         <v>10</v>
@@ -1631,31 +1729,35 @@
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K24" s="16">
         <v>0</v>
       </c>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="16">
+        <v>0</v>
+      </c>
+      <c r="M24" s="43"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="16">
         <v>10</v>
@@ -1665,31 +1767,35 @@
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K25" s="16">
         <v>0</v>
       </c>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="43"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="16">
         <v>10</v>
@@ -1699,31 +1805,35 @@
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>
       </c>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="43"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D27" s="16">
         <v>10</v>
@@ -1733,31 +1843,35 @@
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K27" s="16">
         <v>0</v>
       </c>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="43"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D28" s="16">
         <v>10</v>
@@ -1776,22 +1890,26 @@
         <v>10</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K28" s="16">
         <v>0</v>
       </c>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="16">
+        <v>0</v>
+      </c>
+      <c r="M28" s="43"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="16">
         <v>10</v>
@@ -1801,31 +1919,35 @@
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K29" s="16">
         <v>0</v>
       </c>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="43"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D30" s="16">
         <v>10</v>
@@ -1835,31 +1957,35 @@
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K30" s="16">
         <v>0</v>
       </c>
-      <c r="N30" s="6"/>
-    </row>
-    <row r="31" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" s="16">
         <v>10</v>
@@ -1869,31 +1995,35 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K31" s="16">
         <v>0</v>
       </c>
-      <c r="N31" s="6"/>
-    </row>
-    <row r="32" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="43"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32" s="16">
         <v>10</v>
@@ -1903,31 +2033,35 @@
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K32" s="16">
         <v>0</v>
       </c>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="43"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="16">
         <v>10</v>
@@ -1937,31 +2071,35 @@
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K33" s="16">
         <v>0</v>
       </c>
-      <c r="N33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L33" s="16">
+        <v>0</v>
+      </c>
+      <c r="M33" s="43"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="16">
         <v>10</v>
@@ -1971,31 +2109,35 @@
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K34" s="16">
         <v>0</v>
       </c>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="43"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D35" s="16">
         <v>10</v>
@@ -2019,17 +2161,21 @@
       <c r="K35" s="16">
         <v>0</v>
       </c>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="16">
+        <v>0</v>
+      </c>
+      <c r="M35" s="43"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="16">
         <v>10</v>
@@ -2053,17 +2199,21 @@
       <c r="K36" s="16">
         <v>0</v>
       </c>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="16">
+        <v>0</v>
+      </c>
+      <c r="M36" s="43"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="16">
         <v>10</v>
@@ -2087,17 +2237,21 @@
       <c r="K37" s="16">
         <v>0</v>
       </c>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="43"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D38" s="16">
         <v>10</v>
@@ -2121,17 +2275,21 @@
       <c r="K38" s="16">
         <v>0</v>
       </c>
-      <c r="N38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="16">
+        <v>0</v>
+      </c>
+      <c r="M38" s="43"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="16">
         <v>10</v>
@@ -2155,41 +2313,49 @@
       <c r="K39" s="16">
         <v>0</v>
       </c>
-      <c r="N39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="43"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" s="16">
         <v>0</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K40" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" s="2" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="17">
@@ -2200,7 +2366,7 @@
         <f>SUM(E17:E40)</f>
         <v>615</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="36">
         <v>-390</v>
       </c>
       <c r="G41" s="30">
@@ -2220,101 +2386,118 @@
         <v>0</v>
       </c>
       <c r="K41" s="30">
-        <v>0</v>
-      </c>
-      <c r="L41" s="40">
-        <f>SUM(D41:J41)</f>
+        <f>SUM(K17:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="30">
+        <f>SUM(L17:L40)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="44">
+        <f>SUM(D41:L41)</f>
         <v>505</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="8"/>
       <c r="D42" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" s="21">
         <v>0</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="45"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="8"/>
       <c r="D43" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E43" s="21">
         <v>0</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="2" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="45"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
+      <c r="C44" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="31"/>
       <c r="G44" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M44" s="45"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D45" s="9">
         <v>10</v>
@@ -2338,16 +2521,20 @@
       <c r="K45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="45"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D46" s="9">
         <v>10</v>
@@ -2371,13 +2558,17 @@
       <c r="K46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L46" s="9">
+        <v>0</v>
+      </c>
+      <c r="M46" s="45"/>
+    </row>
+    <row r="47" spans="1:15" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="32">
@@ -2388,7 +2579,7 @@
         <f>SUM(E45:E46)</f>
         <v>200</v>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="36">
         <v>-110</v>
       </c>
       <c r="G47" s="32">
@@ -2407,16 +2598,20 @@
         <f>SUM(J45:J46)</f>
         <v>20</v>
       </c>
-      <c r="K47" s="43">
+      <c r="K47" s="37">
         <f>SUM(K45:K46)</f>
         <v>0</v>
       </c>
-      <c r="L47" s="39">
-        <f>SUM(D47:K47)</f>
+      <c r="L47" s="37">
+        <f>SUM(M45:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="44">
+        <f>SUM(D47:L47)</f>
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="23" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="23" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2428,8 +2623,9 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="L48" s="22"/>
+    </row>
+    <row r="49" spans="1:12" ht="22" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2441,8 +2637,9 @@
       <c r="I49" s="22"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="1:11" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="22"/>
+    </row>
+    <row r="50" spans="1:12" ht="23" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2454,12 +2651,14 @@
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
-    </row>
-    <row r="51" spans="1:11" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L50" s="22"/>
+    </row>
+    <row r="51" spans="1:12" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J51" s="9"/>
-      <c r="K51" s="38"/>
-    </row>
-    <row r="52" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+    </row>
+    <row r="52" spans="1:12" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E54EC4-891E-E942-A9E8-ACE0CDB64EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519E20E8-53D0-DE47-9248-567FA816646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="760" windowWidth="27640" windowHeight="16500" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
+    <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16500" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,6 +493,14 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,17 +510,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,16 +908,16 @@
       <c r="L1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="41"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="31"/>
       <c r="G2" s="15" t="s">
         <v>14</v>
@@ -934,7 +937,7 @@
       <c r="L2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="42"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -971,7 +974,7 @@
       <c r="L3" s="9">
         <v>0</v>
       </c>
-      <c r="M3" s="43"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -1008,7 +1011,7 @@
       <c r="L4" s="34">
         <v>0</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1045,7 +1048,7 @@
       <c r="L5" s="9">
         <v>0</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
@@ -1082,7 +1085,7 @@
       <c r="L6" s="9">
         <v>0</v>
       </c>
-      <c r="M6" s="43"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -1119,7 +1122,7 @@
       <c r="L7" s="9">
         <v>0</v>
       </c>
-      <c r="M7" s="43"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -1156,7 +1159,7 @@
       <c r="L8" s="9">
         <v>0</v>
       </c>
-      <c r="M8" s="43"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
@@ -1172,20 +1175,20 @@
         <v>10</v>
       </c>
       <c r="E9" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
@@ -1193,7 +1196,7 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
-      <c r="M9" s="43"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
@@ -1230,7 +1233,7 @@
       <c r="L10" s="9">
         <v>0</v>
       </c>
-      <c r="M10" s="43"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
@@ -1267,7 +1270,7 @@
       <c r="L11" s="9">
         <v>0</v>
       </c>
-      <c r="M11" s="43"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
@@ -1304,7 +1307,7 @@
       <c r="L12" s="9">
         <v>0</v>
       </c>
-      <c r="M12" s="43"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
@@ -1320,26 +1323,26 @@
       </c>
       <c r="E13" s="12">
         <f>SUM(E3:E12)</f>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F13" s="36">
         <v>-51.5</v>
       </c>
       <c r="G13" s="29">
         <f>SUM(G3:G12)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H13" s="29">
         <f>0+SUM(H3:H12)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I13" s="29">
         <f>SUM(I3:I12)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J13" s="29">
         <f>SUM(J3:J12)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K13" s="29">
         <f>SUM(K3:K12)</f>
@@ -1349,9 +1352,9 @@
         <f>SUM(L3:L12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="44">
+      <c r="M13" s="45">
         <f>SUM(D13:L13)</f>
-        <v>778.5</v>
+        <v>868.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1383,7 +1386,7 @@
       <c r="L14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="43"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
@@ -1414,16 +1417,16 @@
       <c r="L15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="43"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="31"/>
       <c r="G16" s="15" t="s">
         <v>14</v>
@@ -1443,7 +1446,7 @@
       <c r="L16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="43"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
@@ -1480,7 +1483,7 @@
       <c r="L17" s="16">
         <v>0</v>
       </c>
-      <c r="M17" s="43"/>
+      <c r="M17" s="40"/>
       <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1518,7 +1521,7 @@
       <c r="L18" s="16">
         <v>0</v>
       </c>
-      <c r="M18" s="43"/>
+      <c r="M18" s="40"/>
       <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1556,7 +1559,7 @@
       <c r="L19" s="16">
         <v>0</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="40"/>
       <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1594,7 +1597,7 @@
       <c r="L20" s="16">
         <v>0</v>
       </c>
-      <c r="M20" s="43"/>
+      <c r="M20" s="40"/>
       <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1632,7 +1635,7 @@
       <c r="L21" s="16">
         <v>0</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="40"/>
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1670,7 +1673,7 @@
       <c r="L22" s="16">
         <v>0</v>
       </c>
-      <c r="M22" s="43"/>
+      <c r="M22" s="40"/>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1708,7 +1711,7 @@
       <c r="L23" s="16">
         <v>0</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="40"/>
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1746,7 +1749,7 @@
       <c r="L24" s="16">
         <v>0</v>
       </c>
-      <c r="M24" s="43"/>
+      <c r="M24" s="40"/>
       <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1784,7 +1787,7 @@
       <c r="L25" s="16">
         <v>0</v>
       </c>
-      <c r="M25" s="43"/>
+      <c r="M25" s="40"/>
       <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1822,7 +1825,7 @@
       <c r="L26" s="16">
         <v>0</v>
       </c>
-      <c r="M26" s="43"/>
+      <c r="M26" s="40"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1860,7 +1863,7 @@
       <c r="L27" s="16">
         <v>0</v>
       </c>
-      <c r="M27" s="43"/>
+      <c r="M27" s="40"/>
       <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1898,7 +1901,7 @@
       <c r="L28" s="16">
         <v>0</v>
       </c>
-      <c r="M28" s="43"/>
+      <c r="M28" s="40"/>
       <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1936,7 +1939,7 @@
       <c r="L29" s="16">
         <v>0</v>
       </c>
-      <c r="M29" s="43"/>
+      <c r="M29" s="40"/>
       <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1974,7 +1977,7 @@
       <c r="L30" s="16">
         <v>0</v>
       </c>
-      <c r="M30" s="43"/>
+      <c r="M30" s="40"/>
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2012,7 +2015,7 @@
       <c r="L31" s="16">
         <v>0</v>
       </c>
-      <c r="M31" s="43"/>
+      <c r="M31" s="40"/>
       <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2050,7 +2053,7 @@
       <c r="L32" s="16">
         <v>0</v>
       </c>
-      <c r="M32" s="43"/>
+      <c r="M32" s="40"/>
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2088,7 +2091,7 @@
       <c r="L33" s="16">
         <v>0</v>
       </c>
-      <c r="M33" s="43"/>
+      <c r="M33" s="40"/>
       <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2126,7 +2129,7 @@
       <c r="L34" s="16">
         <v>0</v>
       </c>
-      <c r="M34" s="43"/>
+      <c r="M34" s="40"/>
       <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2164,7 +2167,7 @@
       <c r="L35" s="16">
         <v>0</v>
       </c>
-      <c r="M35" s="43"/>
+      <c r="M35" s="40"/>
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2202,7 +2205,7 @@
       <c r="L36" s="16">
         <v>0</v>
       </c>
-      <c r="M36" s="43"/>
+      <c r="M36" s="40"/>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2240,7 +2243,7 @@
       <c r="L37" s="16">
         <v>0</v>
       </c>
-      <c r="M37" s="43"/>
+      <c r="M37" s="40"/>
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2278,7 +2281,7 @@
       <c r="L38" s="16">
         <v>0</v>
       </c>
-      <c r="M38" s="43"/>
+      <c r="M38" s="40"/>
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2316,7 +2319,7 @@
       <c r="L39" s="16">
         <v>0</v>
       </c>
-      <c r="M39" s="43"/>
+      <c r="M39" s="40"/>
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2348,7 +2351,7 @@
       <c r="L40" s="16">
         <v>0</v>
       </c>
-      <c r="M40" s="43"/>
+      <c r="M40" s="40"/>
     </row>
     <row r="41" spans="1:15" s="2" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
@@ -2393,7 +2396,7 @@
         <f>SUM(L17:L40)</f>
         <v>0</v>
       </c>
-      <c r="M41" s="44">
+      <c r="M41" s="46">
         <f>SUM(D41:L41)</f>
         <v>505</v>
       </c>
@@ -2427,7 +2430,7 @@
       <c r="L42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="45"/>
+      <c r="M42" s="41"/>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
@@ -2458,16 +2461,16 @@
       <c r="L43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M43" s="45"/>
+      <c r="M43" s="41"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="31"/>
       <c r="G44" s="15" t="s">
         <v>14</v>
@@ -2487,7 +2490,7 @@
       <c r="L44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M44" s="45"/>
+      <c r="M44" s="41"/>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
@@ -2524,7 +2527,7 @@
       <c r="L45" s="9">
         <v>0</v>
       </c>
-      <c r="M45" s="45"/>
+      <c r="M45" s="41"/>
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
@@ -2561,7 +2564,7 @@
       <c r="L46" s="9">
         <v>0</v>
       </c>
-      <c r="M46" s="45"/>
+      <c r="M46" s="41"/>
     </row>
     <row r="47" spans="1:15" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
@@ -2606,7 +2609,7 @@
         <f>SUM(M45:M46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="44">
+      <c r="M47" s="45">
         <f>SUM(D47:L47)</f>
         <v>190</v>
       </c>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519E20E8-53D0-DE47-9248-567FA816646D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107636D-B380-F148-8DC6-DA157CF0D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="760" windowWidth="27640" windowHeight="16500" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="65">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -501,6 +501,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,12 +515,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,11 +913,11 @@
     <row r="2" spans="1:13" s="28" customFormat="1" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="31"/>
       <c r="G2" s="15" t="s">
         <v>14</v>
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M5" s="40"/>
     </row>
@@ -1350,11 +1350,11 @@
       </c>
       <c r="L13" s="29">
         <f>SUM(L3:L12)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="45">
+        <v>10</v>
+      </c>
+      <c r="M13" s="42">
         <f>SUM(D13:L13)</f>
-        <v>868.5</v>
+        <v>878.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1422,11 +1422,11 @@
     <row r="16" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="31"/>
       <c r="G16" s="15" t="s">
         <v>14</v>
@@ -1892,14 +1892,14 @@
       <c r="I28" s="16">
         <v>10</v>
       </c>
-      <c r="J28" s="16" t="s">
-        <v>14</v>
+      <c r="J28" s="16">
+        <v>10</v>
       </c>
       <c r="K28" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L28" s="16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M28" s="40"/>
       <c r="O28" s="6"/>
@@ -2386,19 +2386,19 @@
       </c>
       <c r="J41" s="30">
         <f>SUM(J17:J40)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K41" s="30">
         <f>SUM(K17:K40)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L41" s="30">
         <f>SUM(L17:L40)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="46">
+        <v>10</v>
+      </c>
+      <c r="M41" s="43">
         <f>SUM(D41:L41)</f>
-        <v>505</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="2" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2466,11 +2466,11 @@
     <row r="44" spans="1:15" s="2" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="31"/>
       <c r="G44" s="15" t="s">
         <v>14</v>
@@ -2609,7 +2609,7 @@
         <f>SUM(M45:M46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="45">
+      <c r="M47" s="42">
         <f>SUM(D47:L47)</f>
         <v>190</v>
       </c>
